--- a/Tupro2_Fuzzy/masukan.xlsx
+++ b/Tupro2_Fuzzy/masukan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMMING\Tes Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMMING\GitHub\Tupro-Sistem-Cerdas\Tupro2_Fuzzy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8C2CF0-0E42-4B27-8242-EA3B72CB6C3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B2B342-DE63-43EC-8D8F-F737FB73CD98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C344CA67-A259-4A68-AA21-79122E416DBA}"/>
   </bookViews>
@@ -397,7 +397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF755E07-19B9-4496-A868-C6BE86D3ABA9}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
@@ -420,11 +420,11 @@
       </c>
       <c r="B2" s="1">
         <f t="shared" ref="B2:B65" ca="1" si="0">RAND()*4</f>
-        <v>1.9970261794967725</v>
+        <v>3.7720264751016988</v>
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -433,11 +433,11 @@
       </c>
       <c r="B3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.24296698592123</v>
+        <v>2.6531049767176125</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" ca="1" si="1">RANDBETWEEN(1,20)</f>
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -446,11 +446,11 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6603631376013017</v>
+        <v>1.4710418278458253</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -459,11 +459,11 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13343030776716214</v>
+        <v>3.3126623576252339</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -472,11 +472,11 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6401829607703449</v>
+        <v>2.1061148797237199</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -485,11 +485,11 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2459715138408893</v>
+        <v>3.0828271911304648</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -498,11 +498,11 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2015342724476263</v>
+        <v>1.8483968986569264</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -511,11 +511,11 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0564631907119839</v>
+        <v>0.56347320516786636</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -524,11 +524,11 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2439130337418152</v>
+        <v>3.6627145222534403</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -537,11 +537,11 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34348743584322117</v>
+        <v>1.0951685249378507E-2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -550,11 +550,11 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0525026495821064</v>
+        <v>3.4421364135575181</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -563,11 +563,11 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31865330323601571</v>
+        <v>1.2052000530472511</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -576,11 +576,11 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6886081153135999</v>
+        <v>2.4953593306407749</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -589,7 +589,7 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8892986395841436</v>
+        <v>1.2282058941472163</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
@@ -602,11 +602,11 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60032061739773956</v>
+        <v>3.912954386784254</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -615,11 +615,11 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3883967175783898</v>
+        <v>3.7872903485783809</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -628,11 +628,11 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5692904886027095</v>
+        <v>2.5605951901719575</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -641,11 +641,11 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5067722214643382E-3</v>
+        <v>1.473195147008342</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -654,11 +654,11 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6697448949468243</v>
+        <v>3.2102613219777245</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -667,11 +667,11 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6440517877264549</v>
+        <v>0.90678774705323351</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -680,11 +680,11 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53678789745319433</v>
+        <v>0.18927433020422368</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -693,11 +693,11 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97846186831862392</v>
+        <v>0.6770861913882924</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -706,11 +706,11 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4193761680890571</v>
+        <v>3.6880893673082387</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -719,11 +719,11 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48017400173925884</v>
+        <v>2.8308326939042265</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -732,7 +732,7 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39349979707276761</v>
+        <v>3.2645691463525779</v>
       </c>
       <c r="C26">
         <v>200</v>
@@ -744,11 +744,11 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1934670316496265</v>
+        <v>3.1447489750275777</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -757,11 +757,11 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0002695990824151</v>
+        <v>3.3834258942119035</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -770,11 +770,11 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6843057977016906</v>
+        <v>2.2549396400219717</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -783,11 +783,11 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7757874531643338</v>
+        <v>1.8234159674119139</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -796,11 +796,11 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7805109586599879</v>
+        <v>2.842435450011267</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -809,11 +809,11 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7426390980494921</v>
+        <v>2.725647127771468</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -822,11 +822,11 @@
       </c>
       <c r="B33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5851459044460365</v>
+        <v>2.6017277252612487</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -835,11 +835,11 @@
       </c>
       <c r="B34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.598851469988996</v>
+        <v>3.7446165037160832</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -848,11 +848,11 @@
       </c>
       <c r="B35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12345248799243302</v>
+        <v>1.0315988749138572</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -861,11 +861,11 @@
       </c>
       <c r="B36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5675357102915743</v>
+        <v>1.1407554491139451</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -874,11 +874,11 @@
       </c>
       <c r="B37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0718847860691199</v>
+        <v>2.7913288815354584</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -887,11 +887,11 @@
       </c>
       <c r="B38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.736395721077105</v>
+        <v>1.7082138741223361</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -900,11 +900,11 @@
       </c>
       <c r="B39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5653993108807152</v>
+        <v>3.6376115132544959</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -913,11 +913,11 @@
       </c>
       <c r="B40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0290751447009301</v>
+        <v>3.9095157589331171</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -926,11 +926,11 @@
       </c>
       <c r="B41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.345710525896084</v>
+        <v>3.8495653820369227</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -939,11 +939,11 @@
       </c>
       <c r="B42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9994640680066866</v>
+        <v>2.2055119787984463</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -952,11 +952,11 @@
       </c>
       <c r="B43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53575148615477364</v>
+        <v>0.37864291119534599</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -965,11 +965,11 @@
       </c>
       <c r="B44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4699932336765462</v>
+        <v>2.7284570627262745</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -978,11 +978,11 @@
       </c>
       <c r="B45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63252387138797195</v>
+        <v>3.1267175243888117</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -991,11 +991,11 @@
       </c>
       <c r="B46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4190842758964974</v>
+        <v>2.5661475812911267</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1004,11 +1004,11 @@
       </c>
       <c r="B47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8569879374366973</v>
+        <v>0.56993476899831741</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1017,11 +1017,11 @@
       </c>
       <c r="B48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70169488344020792</v>
+        <v>3.2905787835173501</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1030,11 +1030,11 @@
       </c>
       <c r="B49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6913394068550134</v>
+        <v>3.728453948914229</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1043,11 +1043,11 @@
       </c>
       <c r="B50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0478618493023006E-2</v>
+        <v>3.3715307544394357</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8797434047330306</v>
+        <v>2.6282081786315254</v>
       </c>
       <c r="C51">
         <v>1000</v>
@@ -1068,11 +1068,11 @@
       </c>
       <c r="B52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8541872666172048</v>
+        <v>1.5500055097572027</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1081,11 +1081,11 @@
       </c>
       <c r="B53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20361837011522699</v>
+        <v>2.6103133102952683</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1094,11 +1094,11 @@
       </c>
       <c r="B54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0037810955807989</v>
+        <v>1.9403583810742591</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1107,11 +1107,11 @@
       </c>
       <c r="B55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18793267930420399</v>
+        <v>0.95466350745136275</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1120,11 +1120,11 @@
       </c>
       <c r="B56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2254004934220366</v>
+        <v>3.8311234583392606</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1133,11 +1133,11 @@
       </c>
       <c r="B57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51405931276033767</v>
+        <v>0.90201926502193208</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1146,11 +1146,11 @@
       </c>
       <c r="B58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7779692674343992</v>
+        <v>3.1731038323298262</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1159,11 +1159,11 @@
       </c>
       <c r="B59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22129618593120171</v>
+        <v>1.1386301200169697</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1172,11 +1172,11 @@
       </c>
       <c r="B60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.342642585172515</v>
+        <v>3.9429327990067069</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1185,11 +1185,11 @@
       </c>
       <c r="B61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6624981171887714</v>
+        <v>1.6841495313971109</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1198,11 +1198,11 @@
       </c>
       <c r="B62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2421290605311963</v>
+        <v>2.5641958569883743</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1211,11 +1211,11 @@
       </c>
       <c r="B63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94649632460161559</v>
+        <v>1.6247240423716547</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8994988996055491</v>
+        <v>2.1560445722579096</v>
       </c>
       <c r="C64">
         <v>99</v>
@@ -1236,11 +1236,11 @@
       </c>
       <c r="B65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0522304791076897</v>
+        <v>3.9559135341766805</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1249,11 +1249,11 @@
       </c>
       <c r="B66" s="1">
         <f t="shared" ref="B66:B101" ca="1" si="2">RAND()*4</f>
-        <v>0.13191098508680454</v>
+        <v>0.18133031676493649</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1262,11 +1262,11 @@
       </c>
       <c r="B67" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3.4928533390009147</v>
+        <v>1.687026884431067</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C101" ca="1" si="3">RANDBETWEEN(1,20)</f>
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1275,11 +1275,11 @@
       </c>
       <c r="B68" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92626481921104364</v>
+        <v>2.8354778821339686</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1288,11 +1288,11 @@
       </c>
       <c r="B69" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.8470150329919046</v>
+        <v>0.40598729231036979</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1301,11 +1301,11 @@
       </c>
       <c r="B70" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0478166076821469</v>
+        <v>1.8415346253103007</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1314,11 +1314,11 @@
       </c>
       <c r="B71" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3.4163098560054261</v>
+        <v>2.0205820176553249</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1327,11 +1327,11 @@
       </c>
       <c r="B72" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5549569118059638</v>
+        <v>2.9157642679125706</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -1340,11 +1340,11 @@
       </c>
       <c r="B73" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49805233116277581</v>
+        <v>2.2919966931720146</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -1353,11 +1353,11 @@
       </c>
       <c r="B74" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3.4530857545513203</v>
+        <v>1.1341654809857888</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -1366,11 +1366,11 @@
       </c>
       <c r="B75" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42476044863798679</v>
+        <v>0.4962229749900442</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -1379,11 +1379,11 @@
       </c>
       <c r="B76" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.8345493222145377</v>
+        <v>0.11801781977572334</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1392,11 +1392,11 @@
       </c>
       <c r="B77" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.1532902058826582</v>
+        <v>2.3117982770981667</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -1405,11 +1405,11 @@
       </c>
       <c r="B78" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3.8603709951215097</v>
+        <v>0.64795343842742792</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -1418,11 +1418,11 @@
       </c>
       <c r="B79" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3.7045326071793672</v>
+        <v>1.9993959936850159</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -1431,11 +1431,11 @@
       </c>
       <c r="B80" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9676993456154133</v>
+        <v>3.7678121359888626</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -1444,11 +1444,11 @@
       </c>
       <c r="B81" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.242725158635078</v>
+        <v>2.9442959154869932</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -1457,11 +1457,11 @@
       </c>
       <c r="B82" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.2226958284046283</v>
+        <v>2.0429195551889823</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -1470,11 +1470,11 @@
       </c>
       <c r="B83" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3.9281228350502415</v>
+        <v>3.424240775706731</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -1483,11 +1483,11 @@
       </c>
       <c r="B84" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6939810671770585</v>
+        <v>2.1665941358948237</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -1496,11 +1496,11 @@
       </c>
       <c r="B85" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1062564684240872E-2</v>
+        <v>3.9869186732234683</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -1509,11 +1509,11 @@
       </c>
       <c r="B86" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38106640128746605</v>
+        <v>1.8023256848586331</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -1522,11 +1522,11 @@
       </c>
       <c r="B87" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8877171621967936</v>
+        <v>1.6488932406886203E-2</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -1535,11 +1535,11 @@
       </c>
       <c r="B88" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.93536541207905</v>
+        <v>2.3494240463753404</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -1548,11 +1548,11 @@
       </c>
       <c r="B89" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30580952561213559</v>
+        <v>2.3843333964547453</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -1561,11 +1561,11 @@
       </c>
       <c r="B90" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.3843617487989937</v>
+        <v>3.3367643879428548</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -1574,11 +1574,11 @@
       </c>
       <c r="B91" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97485368199832712</v>
+        <v>1.8014262240410059</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -1587,11 +1587,11 @@
       </c>
       <c r="B92" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.4219027598022449</v>
+        <v>0.79136363847820634</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -1600,11 +1600,11 @@
       </c>
       <c r="B93" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.7543621203074573</v>
+        <v>3.4524395359891713E-2</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -1613,11 +1613,11 @@
       </c>
       <c r="B94" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.9437898963254323</v>
+        <v>3.765411674864759</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -1626,11 +1626,11 @@
       </c>
       <c r="B95" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8858217487648443</v>
+        <v>0.84985536797472028</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -1639,11 +1639,11 @@
       </c>
       <c r="B96" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.9644533145151057</v>
+        <v>1.9645593005090909</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -1652,11 +1652,11 @@
       </c>
       <c r="B97" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3.2230888393210462</v>
+        <v>1.9959219623244064</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -1665,11 +1665,11 @@
       </c>
       <c r="B98" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3.4105617131436357</v>
+        <v>1.9052639446880755</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -1678,11 +1678,11 @@
       </c>
       <c r="B99" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35136936248551454</v>
+        <v>1.0122802977212113</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -1691,11 +1691,11 @@
       </c>
       <c r="B100" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.232083920156001</v>
+        <v>1.033339398216055</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -1704,11 +1704,11 @@
       </c>
       <c r="B101" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.9661057764288228</v>
+        <v>1.774792339981841</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Tupro2_Fuzzy/masukan.xlsx
+++ b/Tupro2_Fuzzy/masukan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMMING\GitHub\Tupro-Sistem-Cerdas\Tupro2_Fuzzy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B2B342-DE63-43EC-8D8F-F737FB73CD98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7571BE-3E93-47F1-8827-CCC0A56F7CD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C344CA67-A259-4A68-AA21-79122E416DBA}"/>
   </bookViews>
@@ -36,13 +36,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>IPK</t>
   </si>
   <si>
     <t>Gaji</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -398,20 +398,20 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -420,11 +420,11 @@
       </c>
       <c r="B2" s="1">
         <f t="shared" ref="B2:B65" ca="1" si="0">RAND()*4</f>
-        <v>3.7720264751016988</v>
+        <v>2.3263804917011131</v>
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -433,11 +433,11 @@
       </c>
       <c r="B3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6531049767176125</v>
+        <v>3.2030728552857148</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" ca="1" si="1">RANDBETWEEN(1,20)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -446,11 +446,11 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4710418278458253</v>
+        <v>0.87515550445896872</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -459,11 +459,11 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3126623576252339</v>
+        <v>0.21738637546404105</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -472,11 +472,11 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1061148797237199</v>
+        <v>2.4046394251133147</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -485,11 +485,11 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0828271911304648</v>
+        <v>1.324317841250803</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -498,11 +498,11 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8483968986569264</v>
+        <v>1.8557309037173706</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -511,11 +511,11 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56347320516786636</v>
+        <v>3.1579313276311445</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -524,11 +524,11 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6627145222534403</v>
+        <v>0.5192384309289455</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -537,11 +537,11 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0951685249378507E-2</v>
+        <v>3.4674419272711408</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -550,11 +550,11 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4421364135575181</v>
+        <v>3.2943535297315845</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -563,11 +563,11 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2052000530472511</v>
+        <v>2.0761554757232368</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -576,11 +576,11 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4953593306407749</v>
+        <v>1.6676993062196157</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -589,11 +589,11 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2282058941472163</v>
+        <v>0.52677014195813898</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -602,11 +602,11 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.912954386784254</v>
+        <v>3.2731819241713977</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -615,7 +615,7 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7872903485783809</v>
+        <v>1.5595243424824337</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
@@ -628,11 +628,11 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5605951901719575</v>
+        <v>2.7149176728197704</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -641,11 +641,11 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.473195147008342</v>
+        <v>3.1825204768798079</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -654,11 +654,11 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2102613219777245</v>
+        <v>3.1077327253513403</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -667,11 +667,11 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90678774705323351</v>
+        <v>1.9572149985955041</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -680,11 +680,11 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18927433020422368</v>
+        <v>3.7312058927724077</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -693,11 +693,11 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6770861913882924</v>
+        <v>1.0755358122868381</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -706,11 +706,11 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6880893673082387</v>
+        <v>0.66746457398755998</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -719,11 +719,11 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8308326939042265</v>
+        <v>3.1925820967724161</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -732,7 +732,7 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2645691463525779</v>
+        <v>1.0466365940386715</v>
       </c>
       <c r="C26">
         <v>200</v>
@@ -744,11 +744,11 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1447489750275777</v>
+        <v>1.1762917714727013</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -757,11 +757,11 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3834258942119035</v>
+        <v>3.4834175993179537</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -770,11 +770,11 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2549396400219717</v>
+        <v>1.2477180896620164</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -783,11 +783,11 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8234159674119139</v>
+        <v>0.81302789436636314</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -796,11 +796,11 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.842435450011267</v>
+        <v>1.2917287447748884</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -809,11 +809,11 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.725647127771468</v>
+        <v>0.45386559863998377</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -822,7 +822,7 @@
       </c>
       <c r="B33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6017277252612487</v>
+        <v>3.6856454876462799</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
@@ -835,11 +835,11 @@
       </c>
       <c r="B34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7446165037160832</v>
+        <v>2.2859521666659974</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -848,11 +848,11 @@
       </c>
       <c r="B35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0315988749138572</v>
+        <v>1.4078160791976759</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -861,11 +861,11 @@
       </c>
       <c r="B36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1407554491139451</v>
+        <v>1.0449080927477539</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -874,11 +874,11 @@
       </c>
       <c r="B37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7913288815354584</v>
+        <v>9.1560364115727211E-2</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -887,11 +887,11 @@
       </c>
       <c r="B38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7082138741223361</v>
+        <v>3.6747259168510271</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -900,11 +900,11 @@
       </c>
       <c r="B39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6376115132544959</v>
+        <v>3.3189827048439322</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -913,11 +913,11 @@
       </c>
       <c r="B40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9095157589331171</v>
+        <v>2.2362108303110522</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -926,11 +926,11 @@
       </c>
       <c r="B41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8495653820369227</v>
+        <v>2.1016638813153006</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -939,11 +939,11 @@
       </c>
       <c r="B42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2055119787984463</v>
+        <v>0.3027362731829828</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -952,11 +952,11 @@
       </c>
       <c r="B43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37864291119534599</v>
+        <v>3.9507168078218697</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -965,11 +965,11 @@
       </c>
       <c r="B44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7284570627262745</v>
+        <v>0.27872474465845798</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -978,11 +978,11 @@
       </c>
       <c r="B45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1267175243888117</v>
+        <v>0.95369989085484752</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -991,11 +991,11 @@
       </c>
       <c r="B46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5661475812911267</v>
+        <v>2.9115864314149933</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1004,11 +1004,11 @@
       </c>
       <c r="B47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56993476899831741</v>
+        <v>1.3967984629428098</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1017,11 +1017,11 @@
       </c>
       <c r="B48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2905787835173501</v>
+        <v>1.7708465754122593</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1030,11 +1030,11 @@
       </c>
       <c r="B49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.728453948914229</v>
+        <v>2.9720620639621687</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1043,11 +1043,11 @@
       </c>
       <c r="B50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3715307544394357</v>
+        <v>1.2743433804307798</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6282081786315254</v>
+        <v>0.61959247444223964</v>
       </c>
       <c r="C51">
         <v>1000</v>
@@ -1068,11 +1068,11 @@
       </c>
       <c r="B52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5500055097572027</v>
+        <v>2.6607971322767914</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1081,11 +1081,11 @@
       </c>
       <c r="B53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6103133102952683</v>
+        <v>2.6250237797043376</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1094,11 +1094,11 @@
       </c>
       <c r="B54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9403583810742591</v>
+        <v>3.7752458371705453</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1107,11 +1107,11 @@
       </c>
       <c r="B55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95466350745136275</v>
+        <v>2.862384174505217</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1120,11 +1120,11 @@
       </c>
       <c r="B56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8311234583392606</v>
+        <v>1.5985459484881468</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1133,11 +1133,11 @@
       </c>
       <c r="B57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90201926502193208</v>
+        <v>3.206836387313269</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1146,11 +1146,11 @@
       </c>
       <c r="B58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1731038323298262</v>
+        <v>3.6764914042316534</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1159,11 +1159,11 @@
       </c>
       <c r="B59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1386301200169697</v>
+        <v>2.4427096498693088</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1172,11 +1172,11 @@
       </c>
       <c r="B60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9429327990067069</v>
+        <v>2.2908829384994855</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1185,11 +1185,11 @@
       </c>
       <c r="B61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6841495313971109</v>
+        <v>1.3349773082428373</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1198,11 +1198,11 @@
       </c>
       <c r="B62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5641958569883743</v>
+        <v>2.516775820824968</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1211,11 +1211,11 @@
       </c>
       <c r="B63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6247240423716547</v>
+        <v>0.91804577778962315</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1560445722579096</v>
+        <v>6.2838549823168055E-2</v>
       </c>
       <c r="C64">
         <v>99</v>
@@ -1236,11 +1236,11 @@
       </c>
       <c r="B65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9559135341766805</v>
+        <v>2.8520793158549282</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1249,11 +1249,11 @@
       </c>
       <c r="B66" s="1">
         <f t="shared" ref="B66:B101" ca="1" si="2">RAND()*4</f>
-        <v>0.18133031676493649</v>
+        <v>3.6661315484567889</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1262,11 +1262,11 @@
       </c>
       <c r="B67" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.687026884431067</v>
+        <v>0.24448476492723037</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C101" ca="1" si="3">RANDBETWEEN(1,20)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1275,11 +1275,11 @@
       </c>
       <c r="B68" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.8354778821339686</v>
+        <v>1.3031583195320824</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1288,11 +1288,11 @@
       </c>
       <c r="B69" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40598729231036979</v>
+        <v>2.4082795085741799</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1301,11 +1301,11 @@
       </c>
       <c r="B70" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8415346253103007</v>
+        <v>0.85314555805534509</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="B71" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0205820176553249</v>
+        <v>3.9977748252475358</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="3"/>
@@ -1327,11 +1327,11 @@
       </c>
       <c r="B72" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.9157642679125706</v>
+        <v>3.8372853066549366</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -1340,11 +1340,11 @@
       </c>
       <c r="B73" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.2919966931720146</v>
+        <v>0.17381780906459632</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -1353,11 +1353,11 @@
       </c>
       <c r="B74" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1341654809857888</v>
+        <v>0.31649740229258816</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -1366,11 +1366,11 @@
       </c>
       <c r="B75" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4962229749900442</v>
+        <v>1.7899768196286434</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -1379,11 +1379,11 @@
       </c>
       <c r="B76" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11801781977572334</v>
+        <v>1.7174286806794092</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1392,11 +1392,11 @@
       </c>
       <c r="B77" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.3117982770981667</v>
+        <v>1.0949920996969551</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -1405,11 +1405,11 @@
       </c>
       <c r="B78" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64795343842742792</v>
+        <v>0.44789867837740704</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -1418,11 +1418,11 @@
       </c>
       <c r="B79" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9993959936850159</v>
+        <v>1.9964290626360328</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -1431,11 +1431,11 @@
       </c>
       <c r="B80" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3.7678121359888626</v>
+        <v>0.38924313040334368</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -1444,11 +1444,11 @@
       </c>
       <c r="B81" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.9442959154869932</v>
+        <v>1.8622298196078018</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -1457,11 +1457,11 @@
       </c>
       <c r="B82" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0429195551889823</v>
+        <v>0.29045404455761359</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -1470,11 +1470,11 @@
       </c>
       <c r="B83" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3.424240775706731</v>
+        <v>2.340365179426426</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -1483,11 +1483,11 @@
       </c>
       <c r="B84" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.1665941358948237</v>
+        <v>0.58956394843461357</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -1496,11 +1496,11 @@
       </c>
       <c r="B85" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3.9869186732234683</v>
+        <v>1.23835141892414</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -1509,11 +1509,11 @@
       </c>
       <c r="B86" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8023256848586331</v>
+        <v>0.44700236950769279</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -1522,11 +1522,11 @@
       </c>
       <c r="B87" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6488932406886203E-2</v>
+        <v>2.5539364153214628</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -1535,11 +1535,11 @@
       </c>
       <c r="B88" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.3494240463753404</v>
+        <v>3.0699086706023166</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -1548,11 +1548,11 @@
       </c>
       <c r="B89" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.3843333964547453</v>
+        <v>3.9809788320385664</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B90" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3.3367643879428548</v>
+        <v>0.69945567798049257</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="3"/>
@@ -1574,11 +1574,11 @@
       </c>
       <c r="B91" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8014262240410059</v>
+        <v>2.146850342182995</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -1587,11 +1587,11 @@
       </c>
       <c r="B92" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79136363847820634</v>
+        <v>1.6079579926020529</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -1600,11 +1600,11 @@
       </c>
       <c r="B93" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3.4524395359891713E-2</v>
+        <v>3.4529602541577553E-2</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -1613,11 +1613,11 @@
       </c>
       <c r="B94" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3.765411674864759</v>
+        <v>2.733293301525813</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -1626,11 +1626,11 @@
       </c>
       <c r="B95" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84985536797472028</v>
+        <v>3.2469216985965272</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -1639,11 +1639,11 @@
       </c>
       <c r="B96" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9645593005090909</v>
+        <v>0.75396051941285025</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -1652,11 +1652,11 @@
       </c>
       <c r="B97" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9959219623244064</v>
+        <v>0.25608184233052356</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -1665,11 +1665,11 @@
       </c>
       <c r="B98" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9052639446880755</v>
+        <v>1.6763290834918019</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -1678,11 +1678,11 @@
       </c>
       <c r="B99" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0122802977212113</v>
+        <v>3.54605321451485</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -1691,11 +1691,11 @@
       </c>
       <c r="B100" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.033339398216055</v>
+        <v>0.5930626724409489</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -1704,11 +1704,11 @@
       </c>
       <c r="B101" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.774792339981841</v>
+        <v>2.0091187736912421</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
